--- a/src/test/java/resources/data.xlsx
+++ b/src/test/java/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Assignment\src\test\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeshwanth.marathi\Desktop\Assignment\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29C249-95E6-4C71-ACEB-1D9455E62FEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A75351-CE75-47DC-8D14-AD8ECE04ED0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="520" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,14 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
